--- a/avalon-framework/avalon-office/avalon-office-excel/src/test/resources/test02.xlsx
+++ b/avalon-framework/avalon-office/avalon-office-excel/src/test/resources/test02.xlsx
@@ -115,10 +115,8 @@
           <t>张三1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B2" s="1" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -127,10 +125,8 @@
           <t>张三2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B3" s="1" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -139,10 +135,8 @@
           <t>张三3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B4" s="1" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
